--- a/Lists/The Test/The Test.xlsx
+++ b/Lists/The Test/The Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UENF\4Periodo\Estruturas de Dados\GitHub_Repository\DataStructure\Lists\The Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F19F9-2F23-466E-BD36-851F60A50DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C28C7C6-E557-44BF-AFDD-B9BC051F8974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB7CF818-36A6-4FC5-8EEE-256E8F19D84C}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>f(n)</t>
   </si>
   <si>
     <t>f(n³+n)</t>
@@ -57,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -70,28 +67,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -114,32 +89,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -153,6 +102,34 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -161,24 +138,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE95221-7AD4-421A-835E-7F7E15614745}">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,50 +478,41 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <f>B3*B3*B3+B3</f>
+        <v>8020</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7">
-        <f>B4*B4*B4+B4</f>
-        <v>8020</v>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C5" si="0">B4*B4*B4+B4</f>
+        <v>1000100</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>100</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" ref="C5:C6" si="0">B5*B5*B5+B5</f>
-        <v>1000100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>500</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>125000500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Lists/The Test/The Test.xlsx
+++ b/Lists/The Test/The Test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UENF\4Periodo\Estruturas de Dados\GitHub_Repository\DataStructure\Lists\The Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C28C7C6-E557-44BF-AFDD-B9BC051F8974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A712CFB-13E6-42CE-AC01-5785B9A00507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB7CF818-36A6-4FC5-8EEE-256E8F19D84C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{CB7CF818-36A6-4FC5-8EEE-256E8F19D84C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2i" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2i" sheetId="1" r:id="rId1"/>
+    <sheet name="Q3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,20 +26,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>n</t>
   </si>
   <si>
     <t>f(n³+n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dado que a função de eficiência de um algoritmo é 3nlog(n), se um passo neste algoritmo leva 1 nanosegundo (10^(-9)  segundos) quanto tempo leva o algoritmo para processar uma entrada de tamanho 10.000. </t>
+  </si>
+  <si>
+    <t>Calcule o número de operações.</t>
+  </si>
+  <si>
+    <t>Calcule o tempo em unidades adequadas.</t>
+  </si>
+  <si>
+    <t>passo=1 nano seg</t>
+  </si>
+  <si>
+    <t>passo= 10^-9 segundos</t>
+  </si>
+  <si>
+    <r>
+      <t>30000*log</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10000)</t>
+    </r>
+  </si>
+  <si>
+    <t>3*10000*log2(10000)</t>
+  </si>
+  <si>
+    <t>30000*13,28771...</t>
+  </si>
+  <si>
+    <t>3n*log(n)</t>
+  </si>
+  <si>
+    <t>f (10000) ≅</t>
+  </si>
+  <si>
+    <t>f (10000) =</t>
+  </si>
+  <si>
+    <t>f (n) =</t>
+  </si>
+  <si>
+    <t>passos</t>
+  </si>
+  <si>
+    <t>1km=10 a 3 m</t>
+  </si>
+  <si>
+    <t>1m=10 a 3 mm</t>
+  </si>
+  <si>
+    <t>1mm= 10 a 3 micm</t>
+  </si>
+  <si>
+    <t>1micm=10 a 3 nanom</t>
+  </si>
+  <si>
+    <t>1m=10 a 9nanom</t>
+  </si>
+  <si>
+    <t>1nanom=1/10 a 9 m</t>
+  </si>
+  <si>
+    <t>1nanom=10 a -9 m</t>
+  </si>
+  <si>
+    <t>ns=passos</t>
+  </si>
+  <si>
+    <r>
+      <t>s=ns*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ms=ns*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>μs=ns*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>μs</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -134,11 +297,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -150,6 +403,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,16 +736,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE95221-7AD4-421A-835E-7F7E15614745}">
-  <dimension ref="B1:C5"/>
+  <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -512,8 +787,193 @@
         <v>125000500</v>
       </c>
     </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFD4E23-8741-4BDC-B8A2-EE20120BFC22}">
+  <dimension ref="B1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="16">
+        <v>398631</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17">
+        <f>F5</f>
+        <v>398631</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="17">
+        <f>$F$5*POWER(10,-3)</f>
+        <v>398.63100000000003</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="17">
+        <f>$F$5*POWER(10,-6)</f>
+        <v>0.39863099999999996</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15">
+        <f>30000*LOG(10000,2)</f>
+        <v>398631.37138648349</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" ref="F8:F9" si="0">$F$5*POWER(10,-9)</f>
+        <v>3.9863100000000004E-4</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12">
+        <f>30000*LOG(10000,2)</f>
+        <v>398631.37138648349</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="E3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>